--- a/branches/riziv/StructureDefinition-BeModelMedicationRecordSummaryView.xlsx
+++ b/branches/riziv/StructureDefinition-BeModelMedicationRecordSummaryView.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="81">
   <si>
     <t>Path</t>
   </si>
@@ -137,7 +137,10 @@
     <t>*</t>
   </si>
   <si>
-    <t>Medication Record Treatment View logical model</t>
+    <t>[Logical Model] - Summary View</t>
+  </si>
+  <si>
+    <t>A model for representing a summary view of a patient's medication.</t>
   </si>
   <si>
     <t>Base</t>
@@ -153,7 +156,7 @@
 </t>
   </si>
   <si>
-    <t>The business identifier(s) for the medication treatment</t>
+    <t>The business identifier(s) for the medication summary</t>
   </si>
   <si>
     <t>BeModelMedicationRecordSummaryView.subject</t>
@@ -163,6 +166,9 @@
 </t>
   </si>
   <si>
+    <t>From which patient the summary is from</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecordSummaryView.status</t>
   </si>
   <si>
@@ -170,7 +176,13 @@
 </t>
   </si>
   <si>
+    <t>Status of the summary</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecordSummaryView.intent</t>
+  </si>
+  <si>
+    <t>Intent for the summary</t>
   </si>
   <si>
     <t>BeModelMedicationRecordSummaryView.category</t>
@@ -180,6 +192,9 @@
 </t>
   </si>
   <si>
+    <t>Category of the summary</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecordSummaryView.title</t>
   </si>
   <si>
@@ -187,7 +202,13 @@
 </t>
   </si>
   <si>
+    <t>Short title of the summary</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecordSummaryView.description</t>
+  </si>
+  <si>
+    <t>Textual description of the summary</t>
   </si>
   <si>
     <t>BeModelMedicationRecordSummaryView.encounter</t>
@@ -197,6 +218,9 @@
 </t>
   </si>
   <si>
+    <t>Encounter regarding the summary creation</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecordSummaryView.period</t>
   </si>
   <si>
@@ -204,6 +228,9 @@
 </t>
   </si>
   <si>
+    <t>Period of time that the summary covers</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecordSummaryView.created</t>
   </si>
   <si>
@@ -211,6 +238,9 @@
 </t>
   </si>
   <si>
+    <t>Date of the creation of the summary</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecordSummaryView.author</t>
   </si>
   <si>
@@ -218,11 +248,17 @@
 </t>
   </si>
   <si>
+    <t>Author of the summary</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecordSummaryView.supportingInfo</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(Resource)
 </t>
+  </si>
+  <si>
+    <t>Supporting Info for the summary, like context or aditional information considered relevant</t>
   </si>
   <si>
     <t>BeModelMedicationRecordSummaryView.goal</t>
@@ -400,7 +436,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.55078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="84.05078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -568,7 +604,9 @@
       <c r="K2" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="L2" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
@@ -618,7 +656,7 @@
         <v>37</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>38</v>
@@ -638,7 +676,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -649,7 +687,7 @@
         <v>38</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>37</v>
@@ -661,13 +699,13 @@
         <v>37</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -718,13 +756,13 @@
         <v>37</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>37</v>
@@ -738,7 +776,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -746,10 +784,10 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>37</v>
@@ -761,10 +799,14 @@
         <v>37</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="L4" t="s" s="2">
+        <v>49</v>
+      </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
@@ -814,13 +856,13 @@
         <v>37</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>37</v>
@@ -834,7 +876,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -842,10 +884,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>37</v>
@@ -857,10 +899,14 @@
         <v>37</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>52</v>
+      </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -910,13 +956,13 @@
         <v>37</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>37</v>
@@ -930,7 +976,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -938,10 +984,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>37</v>
@@ -953,10 +999,14 @@
         <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>54</v>
+      </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1006,13 +1056,13 @@
         <v>37</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>37</v>
@@ -1026,7 +1076,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1049,10 +1099,14 @@
         <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>57</v>
+      </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -1102,7 +1156,7 @@
         <v>37</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>38</v>
@@ -1122,7 +1176,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1133,7 +1187,7 @@
         <v>38</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>37</v>
@@ -1145,10 +1199,14 @@
         <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>60</v>
+      </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1198,13 +1256,13 @@
         <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>37</v>
@@ -1218,7 +1276,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1229,7 +1287,7 @@
         <v>38</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>37</v>
@@ -1241,10 +1299,14 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>62</v>
+      </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -1294,13 +1356,13 @@
         <v>37</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>37</v>
@@ -1314,7 +1376,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1325,7 +1387,7 @@
         <v>38</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>37</v>
@@ -1337,10 +1399,14 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>65</v>
+      </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -1390,13 +1456,13 @@
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>37</v>
@@ -1410,7 +1476,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1421,7 +1487,7 @@
         <v>38</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>37</v>
@@ -1433,10 +1499,14 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>68</v>
+      </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -1486,13 +1556,13 @@
         <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>37</v>
@@ -1506,7 +1576,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1517,7 +1587,7 @@
         <v>38</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>37</v>
@@ -1529,10 +1599,14 @@
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -1582,13 +1656,13 @@
         <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>37</v>
@@ -1602,7 +1676,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1613,7 +1687,7 @@
         <v>38</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>37</v>
@@ -1625,10 +1699,14 @@
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -1678,13 +1756,13 @@
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>37</v>
@@ -1698,7 +1776,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1721,10 +1799,14 @@
         <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -1774,7 +1856,7 @@
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>38</v>
@@ -1794,7 +1876,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -1817,13 +1899,13 @@
         <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1874,7 +1956,7 @@
         <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>38</v>
